--- a/data/input/test_0.xlsx
+++ b/data/input/test_0.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>Last Refresh: 6/12/2024 5:56:35 PM</t>
   </si>
@@ -24,6 +24,18 @@
   </si>
   <si>
     <t>Versions - Current Forecast</t>
+  </si>
+  <si>
+    <t>Line Items - Amount</t>
+  </si>
+  <si>
+    <t>Scenarios - Base</t>
+  </si>
+  <si>
+    <t>L5 LOB: MGAAP - VA</t>
+  </si>
+  <si>
+    <t>E5 LE: Joe Higg</t>
   </si>
   <si>
     <t>Q1 FY20</t>
@@ -343,61 +355,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="15.0" customHeight="1"/>
-    <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+    <row r="5" ht="15.0" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="6" ht="15.0" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="7" ht="15.0" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="8" ht="15.0" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+    <row r="9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1">
-        <v>240.0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>300.0</v>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -409,13 +404,49 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
+        <v>240.0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
         <v>340.0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D14" s="1">
         <v>400.0</v>
       </c>
     </row>
@@ -457,61 +488,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="15.0" customHeight="1"/>
-    <row r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+    <row r="5" ht="15.0" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="6" ht="15.0" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="7" ht="15.0" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="8" ht="15.0" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+    <row r="9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1">
-        <v>240.0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>300.0</v>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -523,13 +537,49 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
+        <v>240.0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1">
         <v>340.0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D14" s="1">
         <v>400.0</v>
       </c>
     </row>

--- a/data/input/test_0.xlsx
+++ b/data/input/test_0.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>Last Refresh: 6/12/2024 5:56:35 PM</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t>Fee Income</t>
+  </si>
+  <si>
+    <t>Income Tax Expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Modified GAAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Modified GAAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Modified GAAP</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -102,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -112,6 +127,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -450,6 +466,49 @@
         <v>400.0</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" ref="C21:D21" si="1">SUM(C2:C20)</f>
+        <v>880</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -583,6 +642,49 @@
         <v>400.0</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" ref="C21:D21" si="1">SUM(C2:C20)</f>
+        <v>880</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/data/input/test_0.xlsx
+++ b/data/input/test_0.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
   <si>
     <t>Last Refresh: 6/12/2024 5:56:35 PM</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>Q3 FY22</t>
+  </si>
+  <si>
+    <t>FY29</t>
+  </si>
+  <si>
+    <t>All Periods</t>
   </si>
   <si>
     <t xml:space="preserve">    Premium 1</t>
@@ -405,10 +411,16 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -420,7 +432,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -432,7 +444,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
@@ -444,7 +456,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -456,7 +468,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
@@ -468,37 +480,37 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ref="C21:D21" si="1">SUM(C2:C20)</f>
@@ -581,10 +593,16 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1">
@@ -596,7 +614,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1">
@@ -608,7 +626,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
@@ -620,7 +638,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1">
@@ -632,7 +650,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1">
@@ -644,37 +662,37 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" ref="C21:D21" si="1">SUM(C2:C20)</f>
